--- a/wash_P/TCH.xlsx
+++ b/wash_P/TCH.xlsx
@@ -60519,10 +60519,10 @@
         <v>0</v>
       </c>
       <c r="UV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UW19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UX19" t="n">
         <v>0</v>
@@ -62861,7 +62861,7 @@
         <v>0</v>
       </c>
       <c r="KT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU20" t="n">
         <v>0</v>
@@ -64190,7 +64190,7 @@
         <v>0</v>
       </c>
       <c r="ABU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABV20" t="n">
         <v>0</v>
@@ -64211,7 +64211,7 @@
         <v>0</v>
       </c>
       <c r="ACB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACC20" t="n">
         <v>0</v>
@@ -64226,7 +64226,7 @@
         <v>0</v>
       </c>
       <c r="ACG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACH20" t="n">
         <v>0</v>
@@ -70356,7 +70356,7 @@
         <v>0</v>
       </c>
       <c r="AAQ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAR22" t="n">
         <v>0</v>
@@ -73484,7 +73484,7 @@
         <v>0</v>
       </c>
       <c r="AAQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAR23" t="n">
         <v>0</v>
